--- a/data/meta_final.xlsx
+++ b/data/meta_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karissabarthelson/Documents/2022_MPSIII_3mBrainRNAseq/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123B7040-FD0A-7845-B3FA-83D73024BE0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C362FBB5-52E0-214A-A8B4-1F62F8DE01BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{2DDFF466-319C-804F-A519-7AEA33BEADF1}"/>
   </bookViews>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -514,7 +511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1612,17 +1609,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E0CEEA-89E5-8540-BB4B-B4698994048C}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="46" t="s">
         <v>140</v>
       </c>
@@ -1654,7 +1651,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="20">
       <c r="A2" s="47" t="s">
         <v>5</v>
       </c>
@@ -1686,7 +1683,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="20">
       <c r="A3" s="47" t="s">
         <v>8</v>
       </c>
@@ -1718,7 +1715,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="20">
       <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
@@ -1750,7 +1747,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="20">
       <c r="A5" s="47" t="s">
         <v>13</v>
       </c>
@@ -1782,7 +1779,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="20">
       <c r="A6" s="47" t="s">
         <v>15</v>
       </c>
@@ -1814,7 +1811,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="20">
       <c r="A7" s="47" t="s">
         <v>18</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="20">
       <c r="A8" s="47" t="s">
         <v>20</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="20">
       <c r="A9" s="47" t="s">
         <v>22</v>
       </c>
@@ -1910,7 +1907,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="20">
       <c r="A10" s="47" t="s">
         <v>24</v>
       </c>
@@ -1942,7 +1939,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="20">
       <c r="A11" s="47" t="s">
         <v>26</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="20">
       <c r="A12" s="47" t="s">
         <v>28</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="20">
       <c r="A13" s="47" t="s">
         <v>30</v>
       </c>
@@ -2038,7 +2035,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="20">
       <c r="A14" s="47" t="s">
         <v>32</v>
       </c>
@@ -2070,7 +2067,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="20">
       <c r="A15" s="47" t="s">
         <v>34</v>
       </c>
@@ -2102,7 +2099,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="20">
       <c r="A16" s="47" t="s">
         <v>36</v>
       </c>
@@ -2134,7 +2131,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="20">
       <c r="A17" s="47" t="s">
         <v>38</v>
       </c>
@@ -2166,7 +2163,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="24">
       <c r="A18" s="48" t="s">
         <v>85</v>
       </c>
@@ -2198,7 +2195,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="24">
       <c r="A19" s="47" t="s">
         <v>86</v>
       </c>
@@ -2230,7 +2227,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="24">
       <c r="A20" s="48" t="s">
         <v>87</v>
       </c>
@@ -2262,7 +2259,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="24">
       <c r="A21" s="47" t="s">
         <v>88</v>
       </c>
@@ -2294,7 +2291,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="24">
       <c r="A22" s="48" t="s">
         <v>89</v>
       </c>
@@ -2326,7 +2323,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="24">
       <c r="A23" s="47" t="s">
         <v>90</v>
       </c>
@@ -2358,7 +2355,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="24">
       <c r="A24" s="48" t="s">
         <v>91</v>
       </c>
@@ -2390,7 +2387,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="24">
       <c r="A25" s="47" t="s">
         <v>92</v>
       </c>
@@ -2422,7 +2419,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="24">
       <c r="A26" s="48" t="s">
         <v>93</v>
       </c>
@@ -2454,7 +2451,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="24">
       <c r="A27" s="47" t="s">
         <v>94</v>
       </c>
@@ -2486,7 +2483,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="24">
       <c r="A28" s="48" t="s">
         <v>95</v>
       </c>
@@ -2518,7 +2515,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="24">
       <c r="A29" s="47" t="s">
         <v>96</v>
       </c>
@@ -2550,7 +2547,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="24">
       <c r="A30" s="48" t="s">
         <v>97</v>
       </c>
@@ -2582,7 +2579,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="24">
       <c r="A31" s="47" t="s">
         <v>98</v>
       </c>
@@ -2614,7 +2611,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="24">
       <c r="A32" s="48" t="s">
         <v>99</v>
       </c>
@@ -2646,7 +2643,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="24">
       <c r="A33" s="47" t="s">
         <v>100</v>
       </c>
@@ -2678,7 +2675,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="24">
       <c r="A34" s="48" t="s">
         <v>101</v>
       </c>
@@ -2710,7 +2707,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="24">
       <c r="A35" s="47" t="s">
         <v>102</v>
       </c>
@@ -2742,7 +2739,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="24">
       <c r="A36" s="48" t="s">
         <v>103</v>
       </c>
@@ -2774,7 +2771,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="24">
       <c r="A37" s="47" t="s">
         <v>104</v>
       </c>
@@ -2806,7 +2803,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="24">
       <c r="A38" s="48" t="s">
         <v>105</v>
       </c>
@@ -2838,7 +2835,7 @@
         <v>44532</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="24">
       <c r="A39" s="47" t="s">
         <v>106</v>
       </c>
@@ -2870,7 +2867,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="24">
       <c r="A40" s="48" t="s">
         <v>107</v>
       </c>
@@ -2902,7 +2899,7 @@
         <v>44532</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="24">
       <c r="A41" s="47" t="s">
         <v>108</v>
       </c>
@@ -2934,7 +2931,7 @@
         <v>44532</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="24">
       <c r="A42" s="48" t="s">
         <v>109</v>
       </c>
@@ -2966,7 +2963,7 @@
         <v>44532</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="24">
       <c r="A43" s="47" t="s">
         <v>110</v>
       </c>
@@ -2998,7 +2995,7 @@
         <v>44532</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="24">
       <c r="A44" s="48" t="s">
         <v>111</v>
       </c>
@@ -3030,7 +3027,7 @@
         <v>44532</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="24">
       <c r="A45" s="47" t="s">
         <v>112</v>
       </c>
@@ -3062,7 +3059,7 @@
         <v>44532</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="24">
       <c r="A46" s="48" t="s">
         <v>113</v>
       </c>
@@ -3094,7 +3091,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="24">
       <c r="A47" s="47" t="s">
         <v>114</v>
       </c>
@@ -3126,7 +3123,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="24">
       <c r="A48" s="48" t="s">
         <v>115</v>
       </c>
@@ -3158,7 +3155,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="24">
       <c r="A49" s="47" t="s">
         <v>116</v>
       </c>
@@ -3184,13 +3181,13 @@
         <v>143</v>
       </c>
       <c r="I49" s="44">
-        <v>44798</v>
+        <v>44433</v>
       </c>
       <c r="J49" s="44">
         <v>44532</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="24">
       <c r="A50" s="48" t="s">
         <v>117</v>
       </c>
@@ -3222,7 +3219,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="24">
       <c r="A51" s="47" t="s">
         <v>118</v>
       </c>
@@ -3254,7 +3251,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="24">
       <c r="A52" s="48" t="s">
         <v>119</v>
       </c>
@@ -3280,13 +3277,13 @@
         <v>142</v>
       </c>
       <c r="I52" s="44">
-        <v>44798</v>
+        <v>44433</v>
       </c>
       <c r="J52" s="44">
         <v>44532</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="24">
       <c r="A53" s="47" t="s">
         <v>120</v>
       </c>
@@ -3312,13 +3309,13 @@
         <v>142</v>
       </c>
       <c r="I53" s="44">
-        <v>44798</v>
+        <v>44433</v>
       </c>
       <c r="J53" s="44">
         <v>44532</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="24">
       <c r="A54" s="48" t="s">
         <v>121</v>
       </c>
@@ -3350,7 +3347,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="24">
       <c r="A55" s="47" t="s">
         <v>122</v>
       </c>
@@ -3376,13 +3373,13 @@
         <v>142</v>
       </c>
       <c r="I55" s="44">
-        <v>44798</v>
+        <v>44433</v>
       </c>
       <c r="J55" s="44">
         <v>44532</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="24">
       <c r="A56" s="48" t="s">
         <v>123</v>
       </c>
@@ -3414,7 +3411,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="24">
       <c r="A57" s="47" t="s">
         <v>124</v>
       </c>
@@ -3446,7 +3443,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="24">
       <c r="A58" s="48" t="s">
         <v>125</v>
       </c>
@@ -3478,7 +3475,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="24">
       <c r="A59" s="47" t="s">
         <v>126</v>
       </c>
@@ -3510,7 +3507,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="24">
       <c r="A60" s="48" t="s">
         <v>127</v>
       </c>
@@ -3542,7 +3539,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="24">
       <c r="A61" s="47" t="s">
         <v>128</v>
       </c>
@@ -3574,7 +3571,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="24">
       <c r="A62" s="48" t="s">
         <v>129</v>
       </c>
